--- a/03 Parameter Estimation/experimental_data/tracer_2.xlsx
+++ b/03 Parameter Estimation/experimental_data/tracer_2.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000250484490192948</v>
+        <v>0.0007561981285674993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1005743483493349</v>
+        <v>0.1002957698119939</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0003722472179720279</v>
+        <v>0.0007561981285674993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1003158003928664</v>
+        <v>0.1002957698119939</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004265246827451093</v>
+        <v>-0.0008249193438628161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09912555144046785</v>
+        <v>0.1006285702304455</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0005758224795583873</v>
+        <v>0.0008106834731806165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1005904626099146</v>
+        <v>0.1001189709834221</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.317620200897085e-05</v>
+        <v>0.0008146749490684967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09990615175365931</v>
+        <v>0.09929139047512373</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>2.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.000250484490192948</v>
+        <v>0.0001818020102035154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1005743483493349</v>
+        <v>0.09960800830512302</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0003722472179720279</v>
+        <v>-0.0006199275515419618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1003158003928664</v>
+        <v>0.09926889579891458</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>3.5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0004265246827451093</v>
+        <v>-0.0002977995881628912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09912555144046785</v>
+        <v>0.1003833425579793</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0005758224795583873</v>
+        <v>-0.0005668048222415438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1005904626099146</v>
+        <v>0.1001729985072412</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>4.5</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.317620200897085e-05</v>
+        <v>-0.0004255586890315058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09990615175365931</v>
+        <v>0.1006615581242627</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>7.680920464618254e-05</v>
+        <v>0.0002038140954170548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1005345120187573</v>
+        <v>0.09955953794518906</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>5.5</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0003863516625477063</v>
+        <v>0.0004278803539145813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1002350435598297</v>
+        <v>0.1004193644759969</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0007081598132815792</v>
+        <v>-0.0006132014597977198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09979903887037356</v>
+        <v>0.09959654253563037</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>6.5</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0007486861072077578</v>
+        <v>-0.0004351551971412971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09925532920625053</v>
+        <v>0.09970491967147638</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0003513555678562842</v>
+        <v>0.0004019733689796897</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09954501956647301</v>
+        <v>0.09951949454572456</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>7.5</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0006650825963762326</v>
+        <v>-0.0003085884655487167</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1005557271030483</v>
+        <v>0.09945440975624183</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0003257844955332816</v>
+        <v>-0.0007342549915603729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09914785385856863</v>
+        <v>0.09941023741340858</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0006280843963527962</v>
+        <v>0.0004205761444662397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0994648954552009</v>
+        <v>0.0995495964726015</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>9</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.000810370674397715</v>
+        <v>0.0002343638840045518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09947470568280475</v>
+        <v>0.1008323457117326</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>9.5</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0002036727997853563</v>
+        <v>0.0007866217337798503</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09963338698342963</v>
+        <v>0.09979850476376868</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0005510626052536867</v>
+        <v>-0.0004951124582913757</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09944374158307927</v>
+        <v>0.1004145105225472</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>10.5</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0002026547729163308</v>
+        <v>0.0002140889858009014</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09927849949857374</v>
+        <v>0.1006282175586336</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0001605286868591169</v>
+        <v>-2.475189029637026e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1006488339848086</v>
+        <v>0.1003456010134917</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>11.5</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0002282980049829115</v>
+        <v>-0.0003171467864664969</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09940346826984839</v>
+        <v>0.09915136003681692</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0008719326604681175</v>
+        <v>-0.0007577783895736458</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1000621474814801</v>
+        <v>0.1008693489948792</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>12.5</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.000764598202937947</v>
+        <v>-0.0004405331751699985</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0994183447567239</v>
+        <v>0.09983984512598097</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>0.000389450981274365</v>
+        <v>-0.0007082824677373217</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09995884476543444</v>
+        <v>0.1007062534849901</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>13.5</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0007514827809441491</v>
+        <v>-0.0001774144386919645</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0993432430334016</v>
+        <v>0.1002455997273503</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.000363380338083954</v>
+        <v>0.0001290523882212479</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09998474751812142</v>
+        <v>0.1005008922920726</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>14.5</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0006786527176885054</v>
+        <v>0.001067806110469043</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09929828484656276</v>
+        <v>0.1001449342446693</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0003857876169297758</v>
+        <v>-7.318411505798073e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1003689896778632</v>
+        <v>0.09917690515342548</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>15.5</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0004185839130978975</v>
+        <v>0.0006185784076981133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09996494629214187</v>
+        <v>0.1008300910279599</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.000350473704905438</v>
+        <v>0.001335219404853792</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09919641153347331</v>
+        <v>0.0991575493177085</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>16.5</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0002021447004402975</v>
+        <v>0.002401274182054189</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0999282952870878</v>
+        <v>0.09964849412112156</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>17</v>
       </c>
       <c r="B36" t="n">
-        <v>0.001056896213519286</v>
+        <v>0.002168604866768458</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09971698219794706</v>
+        <v>0.1008398355851079</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>17.5</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001249984397276301</v>
+        <v>0.003455735504859659</v>
       </c>
       <c r="C37" t="n">
-        <v>0.100852084276962</v>
+        <v>0.09988927689968791</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>18</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0005615401550549384</v>
+        <v>0.004404082428537267</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1002624955769812</v>
+        <v>0.0990867253578384</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>18.5</v>
       </c>
       <c r="B39" t="n">
-        <v>0.002585388542625693</v>
+        <v>0.004801664348664417</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1008690881554604</v>
+        <v>0.1000101015599625</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001843180538685627</v>
+        <v>0.00714030042224098</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0998323685742017</v>
+        <v>0.09981912784432927</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>19.5</v>
       </c>
       <c r="B41" t="n">
-        <v>0.002463428224623043</v>
+        <v>0.008657693721423857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0993651570570199</v>
+        <v>0.0994049805751277</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="n">
-        <v>0.004318158483017775</v>
+        <v>0.009989325342869386</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09946862465770689</v>
+        <v>0.09971829285315302</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>20.5</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004647962891879076</v>
+        <v>0.01119354443546158</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09993859207889963</v>
+        <v>0.09930771128097814</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>21</v>
       </c>
       <c r="B44" t="n">
-        <v>0.007138920399738086</v>
+        <v>0.01313549092614342</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09948095740817742</v>
+        <v>0.09895928357956243</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>21.5</v>
       </c>
       <c r="B45" t="n">
-        <v>0.007215482839962381</v>
+        <v>0.0139119299408649</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09895839091767007</v>
+        <v>0.09761019272036552</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>22</v>
       </c>
       <c r="B46" t="n">
-        <v>0.009362298379047477</v>
+        <v>0.01556016947391377</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09892932210115249</v>
+        <v>0.09753855901902986</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>22.5</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01182874926609201</v>
+        <v>0.01767794391146328</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09948864784447596</v>
+        <v>0.09649490711003895</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>23</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01343932734646328</v>
+        <v>0.01867811850068667</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09775500640269731</v>
+        <v>0.09505737703193265</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>23.5</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01490155869901977</v>
+        <v>0.02147034908164513</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09769058451593236</v>
+        <v>0.09430308915016597</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>24</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01516218518377307</v>
+        <v>0.02210140863440609</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09747142166949831</v>
+        <v>0.09187001846824622</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>24.5</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0176404132087899</v>
+        <v>0.02374848704981465</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09536061056700003</v>
+        <v>0.09135722925572827</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>25</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01873183375068288</v>
+        <v>0.02480818327967067</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0946594834076676</v>
+        <v>0.08912525325997157</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>25.5</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02078872229131453</v>
+        <v>0.02643626138476701</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09435885399916459</v>
+        <v>0.08775316881206027</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>26</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02174192120876794</v>
+        <v>0.02778750249878341</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09207176622199004</v>
+        <v>0.08560740453176419</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>26.5</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02415683147082917</v>
+        <v>0.02959277307996346</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09037796601449875</v>
+        <v>0.08481698199279689</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>27</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02498832672278796</v>
+        <v>0.02950507602690629</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09026207107051172</v>
+        <v>0.08314191378536542</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>27.5</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02711223985365517</v>
+        <v>0.0319606004926081</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08771280462306336</v>
+        <v>0.08160330936002851</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>28</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02737036016694285</v>
+        <v>0.03254654932472447</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08591147831228335</v>
+        <v>0.07943147491371605</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>28.5</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02902220855373439</v>
+        <v>0.03184415907569848</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08520331047147883</v>
+        <v>0.07825784626438369</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>29</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03037830938322031</v>
+        <v>0.0324989739438591</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08337791713341261</v>
+        <v>0.07709885541023381</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>29.5</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03023834766041144</v>
+        <v>0.03436144139408737</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08203409843061055</v>
+        <v>0.07473945731404499</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>30</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03276872961710063</v>
+        <v>0.03460672868144811</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07925968840182564</v>
+        <v>0.07444366116478285</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>30.5</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03246243591326187</v>
+        <v>0.03433895995437273</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07787483647157652</v>
+        <v>0.07341289758670907</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>31</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03280800669882706</v>
+        <v>0.03535641479986164</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07755642213365523</v>
+        <v>0.07084699106108473</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>31.5</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03441616101352846</v>
+        <v>0.03459897598302564</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07517343655334577</v>
+        <v>0.07032427581880005</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>32</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03492089461744687</v>
+        <v>0.03522031884697052</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07318758930958898</v>
+        <v>0.06977385895235927</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>32.5</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03373769292444318</v>
+        <v>0.03538378032433522</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07334098567794821</v>
+        <v>0.06921428380471396</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>33</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03478494506662474</v>
+        <v>0.03450686713329335</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07209480669811758</v>
+        <v>0.06786974559292645</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>33.5</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03556155858430539</v>
+        <v>0.03410687517139857</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06997427262816724</v>
+        <v>0.06730868635014928</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>34</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0349161666710571</v>
+        <v>0.03377942182820343</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0691848954702482</v>
+        <v>0.06654463015876988</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>34.5</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0346763822392135</v>
+        <v>0.0337916221699822</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06911743832282</v>
+        <v>0.06519601920269105</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>35</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03438236149324971</v>
+        <v>0.03355780924967234</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06773081441610027</v>
+        <v>0.06522781727745101</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>35.5</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03539723621984587</v>
+        <v>0.03335786635468604</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06726347380012307</v>
+        <v>0.06512141462726197</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>36</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03424107614408494</v>
+        <v>0.03366843054759992</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06623354315071933</v>
+        <v>0.06578641142682959</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>36.5</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03460112197540012</v>
+        <v>0.03332651638135559</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06527684259824751</v>
+        <v>0.06553419516190745</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>37</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03401108026525105</v>
+        <v>0.03292153768337997</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06535610529857738</v>
+        <v>0.06509523815836518</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>37.5</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03319484677778954</v>
+        <v>0.03171376973578245</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06586510378194105</v>
+        <v>0.06493386668410764</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>38</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03313532549482002</v>
+        <v>0.03070688801369271</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06449261033416809</v>
+        <v>0.06490635433397215</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>38.5</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03173868273215461</v>
+        <v>0.02972648064479625</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06442398186427133</v>
+        <v>0.06557812659301211</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>39</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03152312100149986</v>
+        <v>0.02906332082234696</v>
       </c>
       <c r="C80" t="n">
-        <v>0.06479291509519178</v>
+        <v>0.06625479839146114</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>39.5</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03213294841540033</v>
+        <v>0.02850177974529431</v>
       </c>
       <c r="C81" t="n">
-        <v>0.06586595209137538</v>
+        <v>0.06548660846573248</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>40</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03163731358799744</v>
+        <v>0.0287555355440501</v>
       </c>
       <c r="C82" t="n">
-        <v>0.06479372335211971</v>
+        <v>0.06680587750440245</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>40.5</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03072313586273605</v>
+        <v>0.02763599856291621</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06495451217734545</v>
+        <v>0.06704757593020794</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>41</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02994845426666041</v>
+        <v>0.02621205245673435</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06549784016823681</v>
+        <v>0.06722362923642733</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>41.5</v>
       </c>
       <c r="B85" t="n">
-        <v>0.02973117559437611</v>
+        <v>0.02565341363829977</v>
       </c>
       <c r="C85" t="n">
-        <v>0.06638112235991105</v>
+        <v>0.06686292625821111</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>42</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02882981241774368</v>
+        <v>0.02649795208238943</v>
       </c>
       <c r="C86" t="n">
-        <v>0.06646890910973978</v>
+        <v>0.06761481515343375</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>42.5</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02725548064185491</v>
+        <v>0.02550805274428003</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06710351095568405</v>
+        <v>0.06824047006735789</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>43</v>
       </c>
       <c r="B88" t="n">
-        <v>0.02670651484157162</v>
+        <v>0.02439252700070129</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06708093176479575</v>
+        <v>0.0690329346943522</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>43.5</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02723895533297208</v>
+        <v>0.02353081264283121</v>
       </c>
       <c r="C89" t="n">
-        <v>0.06743565176820124</v>
+        <v>0.07085415122751626</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>44</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02555641189198874</v>
+        <v>0.02331248497790366</v>
       </c>
       <c r="C90" t="n">
-        <v>0.06741175984267031</v>
+        <v>0.07059622591679092</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>44.5</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02521745114702319</v>
+        <v>0.0221749778130251</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06941835011976649</v>
+        <v>0.07097123460039614</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>45</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02457972033785676</v>
+        <v>0.02127934792665517</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07015247261844668</v>
+        <v>0.07147217809405146</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>45.5</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0227809694078554</v>
+        <v>0.02167777306434291</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0699507318529568</v>
+        <v>0.07216576368464814</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>46</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02361667544146992</v>
+        <v>0.02038649393800845</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0701928999433834</v>
+        <v>0.07264099310402139</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>46.5</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02233198946061684</v>
+        <v>0.02035352822949175</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07066807456769544</v>
+        <v>0.07363636328009425</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>47</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02190492489160345</v>
+        <v>0.01937739870734832</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07249378489023506</v>
+        <v>0.0747890222356242</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>47.5</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0207172481920433</v>
+        <v>0.01765262537909285</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07211297526468549</v>
+        <v>0.07464737659122636</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>48</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02057542256393886</v>
+        <v>0.01842008314646494</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07361595876558728</v>
+        <v>0.07681907392608632</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>48.5</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01991473936219572</v>
+        <v>0.01775353557731684</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07360560572188179</v>
+        <v>0.07734896224681846</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>49</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01956812596350151</v>
+        <v>0.0173945487139403</v>
       </c>
       <c r="C100" t="n">
-        <v>0.07516259844998224</v>
+        <v>0.07826358740383488</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>49.5</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01823154374848707</v>
+        <v>0.01545699571078441</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07471020327004477</v>
+        <v>0.07743186632444898</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>50</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01695209784901591</v>
+        <v>0.01508923265319872</v>
       </c>
       <c r="C102" t="n">
-        <v>0.07599374879889939</v>
+        <v>0.07961106924724819</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>50.5</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01638793199370601</v>
+        <v>0.01551135048199848</v>
       </c>
       <c r="C103" t="n">
-        <v>0.07731685769480365</v>
+        <v>0.07865179889697835</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>51</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01584950653773177</v>
+        <v>0.01380026064654476</v>
       </c>
       <c r="C104" t="n">
-        <v>0.07817096429160113</v>
+        <v>0.08001497565137559</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>51.5</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01568912645804795</v>
+        <v>0.01391320108151743</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07888689054742587</v>
+        <v>0.08084162437956063</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>52</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01545620986740842</v>
+        <v>0.01302980149733351</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07812666984970443</v>
+        <v>0.08211471290489505</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>52.5</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01528469569133954</v>
+        <v>0.0129466428287983</v>
       </c>
       <c r="C107" t="n">
-        <v>0.07984775385697829</v>
+        <v>0.08226403160396847</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>53</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01388855387012415</v>
+        <v>0.0126422300868738</v>
       </c>
       <c r="C108" t="n">
-        <v>0.07925613934937553</v>
+        <v>0.0833657708179308</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>53.5</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0141389186484051</v>
+        <v>0.01221568754298246</v>
       </c>
       <c r="C109" t="n">
-        <v>0.08011118007912475</v>
+        <v>0.08276900441209854</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>54</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01338210433018643</v>
+        <v>0.01105551670906312</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08087364483213233</v>
+        <v>0.08353369465671484</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>54.5</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01320302609580721</v>
+        <v>0.01022161418257624</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08159807079160167</v>
+        <v>0.08510915059250557</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>55</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01184305425532313</v>
+        <v>0.01006001336721509</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08251144245107316</v>
+        <v>0.08406070316681888</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>55.5</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01246762244900011</v>
+        <v>0.01033091373312278</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08379092925321269</v>
+        <v>0.08511050546076224</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>56</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01182510239271482</v>
+        <v>0.01065322602260386</v>
       </c>
       <c r="C114" t="n">
-        <v>0.08344638729650125</v>
+        <v>0.0853263163193505</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>56.5</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01170212190901727</v>
+        <v>0.009364428668579301</v>
       </c>
       <c r="C115" t="n">
-        <v>0.08391679977501819</v>
+        <v>0.08574184726898097</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>57</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01007354192905614</v>
+        <v>0.009745774111893686</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0847446535076809</v>
+        <v>0.08711290035755928</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>57.5</v>
       </c>
       <c r="B117" t="n">
-        <v>0.009796611785452982</v>
+        <v>0.008921686371009088</v>
       </c>
       <c r="C117" t="n">
-        <v>0.08583825932843774</v>
+        <v>0.08779025856795364</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>58</v>
       </c>
       <c r="B118" t="n">
-        <v>0.009034751005120755</v>
+        <v>0.008041437507622685</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08527537044062004</v>
+        <v>0.08753489379884023</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>58.5</v>
       </c>
       <c r="B119" t="n">
-        <v>0.008685745449883004</v>
+        <v>0.008353020741098709</v>
       </c>
       <c r="C119" t="n">
-        <v>0.08559760289366505</v>
+        <v>0.08759394714731988</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>59</v>
       </c>
       <c r="B120" t="n">
-        <v>0.009665539466233851</v>
+        <v>0.007731052857294671</v>
       </c>
       <c r="C120" t="n">
-        <v>0.08702140733710283</v>
+        <v>0.08960508776306643</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>59.5</v>
       </c>
       <c r="B121" t="n">
-        <v>0.008812403315209889</v>
+        <v>0.0074358210317138</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0874273823872555</v>
+        <v>0.08984433047113755</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>60</v>
       </c>
       <c r="B122" t="n">
-        <v>0.007540816732149297</v>
+        <v>0.006410156455856496</v>
       </c>
       <c r="C122" t="n">
-        <v>0.08844070121186606</v>
+        <v>0.08950087087444546</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>60.5</v>
       </c>
       <c r="B123" t="n">
-        <v>0.007945993474567809</v>
+        <v>0.006597158151303122</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0874368005668619</v>
+        <v>0.08991334614912656</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>61</v>
       </c>
       <c r="B124" t="n">
-        <v>0.008173480257428074</v>
+        <v>0.006566321362270469</v>
       </c>
       <c r="C124" t="n">
-        <v>0.08951961619309305</v>
+        <v>0.0903308240134009</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>61.5</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0068124992282912</v>
+        <v>0.006563528823003991</v>
       </c>
       <c r="C125" t="n">
-        <v>0.08968841364417778</v>
+        <v>0.09015088118606054</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>62</v>
       </c>
       <c r="B126" t="n">
-        <v>0.007056966988864946</v>
+        <v>0.006833905610376773</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09008096249926889</v>
+        <v>0.09141617292054291</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>62.5</v>
       </c>
       <c r="B127" t="n">
-        <v>0.006891325785286228</v>
+        <v>0.005714068018425182</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08973300537393607</v>
+        <v>0.09075123640197946</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>63</v>
       </c>
       <c r="B128" t="n">
-        <v>0.005840726275792952</v>
+        <v>0.005742163012583778</v>
       </c>
       <c r="C128" t="n">
-        <v>0.09002996213411879</v>
+        <v>0.09254792380826032</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>63.5</v>
       </c>
       <c r="B129" t="n">
-        <v>0.005713508249030707</v>
+        <v>0.005924788120911096</v>
       </c>
       <c r="C129" t="n">
-        <v>0.09161275891448081</v>
+        <v>0.09180041286234923</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>64</v>
       </c>
       <c r="B130" t="n">
-        <v>0.00641043519554398</v>
+        <v>0.005838104718670325</v>
       </c>
       <c r="C130" t="n">
-        <v>0.09048391987486781</v>
+        <v>0.09308378988294445</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>64.5</v>
       </c>
       <c r="B131" t="n">
-        <v>0.006234956868252001</v>
+        <v>0.004568980808763206</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0920605024407587</v>
+        <v>0.0935309278413545</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>65</v>
       </c>
       <c r="B132" t="n">
-        <v>0.005846984808285505</v>
+        <v>0.003891031014705674</v>
       </c>
       <c r="C132" t="n">
-        <v>0.09141303057421195</v>
+        <v>0.09237184446806537</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>65.5</v>
       </c>
       <c r="B133" t="n">
-        <v>0.004903532215647937</v>
+        <v>0.004350989504167275</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09186552768938494</v>
+        <v>0.09416049385380239</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>66</v>
       </c>
       <c r="B134" t="n">
-        <v>0.00428269556622963</v>
+        <v>0.00468913023141908</v>
       </c>
       <c r="C134" t="n">
-        <v>0.09286614072063501</v>
+        <v>0.09324377046220401</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>66.5</v>
       </c>
       <c r="B135" t="n">
-        <v>0.005703976064935081</v>
+        <v>0.004567465006468037</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09224870398692264</v>
+        <v>0.09467567081703258</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>67</v>
       </c>
       <c r="B136" t="n">
-        <v>0.004944676404076505</v>
+        <v>0.004597739911553842</v>
       </c>
       <c r="C136" t="n">
-        <v>0.09248861945697974</v>
+        <v>0.09352374260948527</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>67.5</v>
       </c>
       <c r="B137" t="n">
-        <v>0.004174278845116684</v>
+        <v>0.004356340026940702</v>
       </c>
       <c r="C137" t="n">
-        <v>0.09304197837260011</v>
+        <v>0.09385179000145896</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>68</v>
       </c>
       <c r="B138" t="n">
-        <v>0.004413059995892869</v>
+        <v>0.00336648788950428</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0932007000854455</v>
+        <v>0.09544096694182246</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>68.5</v>
       </c>
       <c r="B139" t="n">
-        <v>0.00474719723187569</v>
+        <v>0.004151054731096861</v>
       </c>
       <c r="C139" t="n">
-        <v>0.09391585744441507</v>
+        <v>0.09453782428077745</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>69</v>
       </c>
       <c r="B140" t="n">
-        <v>0.004800017029988357</v>
+        <v>0.003516650321808207</v>
       </c>
       <c r="C140" t="n">
-        <v>0.09383555340068633</v>
+        <v>0.09459184052896673</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>69.5</v>
       </c>
       <c r="B141" t="n">
-        <v>0.003797650493649606</v>
+        <v>0.002318345843706255</v>
       </c>
       <c r="C141" t="n">
-        <v>0.09493335302829654</v>
+        <v>0.09434545333394583</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>70</v>
       </c>
       <c r="B142" t="n">
-        <v>0.003879749335207103</v>
+        <v>0.003428160549641149</v>
       </c>
       <c r="C142" t="n">
-        <v>0.09428278375970166</v>
+        <v>0.09471284006071522</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>70.5</v>
       </c>
       <c r="B143" t="n">
-        <v>0.003346430311068445</v>
+        <v>0.003392027667389081</v>
       </c>
       <c r="C143" t="n">
-        <v>0.09491679312993435</v>
+        <v>0.09579606682403842</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>71</v>
       </c>
       <c r="B144" t="n">
-        <v>0.004121764702245925</v>
+        <v>0.002695961991649285</v>
       </c>
       <c r="C144" t="n">
-        <v>0.09512840981402394</v>
+        <v>0.09632197223533806</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>71.5</v>
       </c>
       <c r="B145" t="n">
-        <v>0.003322885947317305</v>
+        <v>0.003351370293154356</v>
       </c>
       <c r="C145" t="n">
-        <v>0.09520261997936612</v>
+        <v>0.09619916299842382</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>72</v>
       </c>
       <c r="B146" t="n">
-        <v>0.002831140150559117</v>
+        <v>0.002637276758317535</v>
       </c>
       <c r="C146" t="n">
-        <v>0.09586432791629904</v>
+        <v>0.09635689582255365</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>72.5</v>
       </c>
       <c r="B147" t="n">
-        <v>0.002515836471764315</v>
+        <v>0.002185249492091806</v>
       </c>
       <c r="C147" t="n">
-        <v>0.09625944713022157</v>
+        <v>0.09571996304665251</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>73</v>
       </c>
       <c r="B148" t="n">
-        <v>0.003247920051885464</v>
+        <v>0.001777233134803809</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0959644454723392</v>
+        <v>0.09661934616382348</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>73.5</v>
       </c>
       <c r="B149" t="n">
-        <v>0.003002822105357939</v>
+        <v>0.002615041012817278</v>
       </c>
       <c r="C149" t="n">
-        <v>0.09534527986276557</v>
+        <v>0.09655098766946046</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>74</v>
       </c>
       <c r="B150" t="n">
-        <v>0.002940902203293819</v>
+        <v>0.001858445778891213</v>
       </c>
       <c r="C150" t="n">
-        <v>0.09691941343875718</v>
+        <v>0.09697623795947752</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>74.5</v>
       </c>
       <c r="B151" t="n">
-        <v>0.003021015607899641</v>
+        <v>0.001826312301572167</v>
       </c>
       <c r="C151" t="n">
-        <v>0.09688379814365122</v>
+        <v>0.09644863082057939</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>75</v>
       </c>
       <c r="B152" t="n">
-        <v>0.002171208747535866</v>
+        <v>0.001649998331880667</v>
       </c>
       <c r="C152" t="n">
-        <v>0.09638517650420972</v>
+        <v>0.09758069059626298</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>75.5</v>
       </c>
       <c r="B153" t="n">
-        <v>0.001558601668329596</v>
+        <v>0.00122355858800776</v>
       </c>
       <c r="C153" t="n">
-        <v>0.09721433404852417</v>
+        <v>0.09726473507776082</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>76</v>
       </c>
       <c r="B154" t="n">
-        <v>0.002579070172178826</v>
+        <v>0.001846633981064364</v>
       </c>
       <c r="C154" t="n">
-        <v>0.09593814437749983</v>
+        <v>0.09684585402193034</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>76.5</v>
       </c>
       <c r="B155" t="n">
-        <v>0.001485435079058128</v>
+        <v>0.002451571940746808</v>
       </c>
       <c r="C155" t="n">
-        <v>0.09682107932894145</v>
+        <v>0.09672957776305946</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>77</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0014370810533107</v>
+        <v>0.001758344375801861</v>
       </c>
       <c r="C156" t="n">
-        <v>0.09628010876666593</v>
+        <v>0.09672005735322732</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>77.5</v>
       </c>
       <c r="B157" t="n">
-        <v>0.002687331998359926</v>
+        <v>0.002231877896190728</v>
       </c>
       <c r="C157" t="n">
-        <v>0.09635260764568065</v>
+        <v>0.09731090026339793</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>78</v>
       </c>
       <c r="B158" t="n">
-        <v>0.001517136886872091</v>
+        <v>0.001138279383837849</v>
       </c>
       <c r="C158" t="n">
-        <v>0.09746884768043421</v>
+        <v>0.09803230021141013</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>78.5</v>
       </c>
       <c r="B159" t="n">
-        <v>0.002012794123394881</v>
+        <v>0.001127582002680158</v>
       </c>
       <c r="C159" t="n">
-        <v>0.09689129731531707</v>
+        <v>0.0969699255909378</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>79</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0009705941340719772</v>
+        <v>0.001167134608217585</v>
       </c>
       <c r="C160" t="n">
-        <v>0.09753373983248531</v>
+        <v>0.09746921751990083</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>79.5</v>
       </c>
       <c r="B161" t="n">
-        <v>0.001202396708222418</v>
+        <v>0.00114060439794334</v>
       </c>
       <c r="C161" t="n">
-        <v>0.09848972680884063</v>
+        <v>0.09740481633555198</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>80</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0008380640907258461</v>
+        <v>0.0004995194140336454</v>
       </c>
       <c r="C162" t="n">
-        <v>0.09790660673702981</v>
+        <v>0.09813507415180513</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>80.5</v>
       </c>
       <c r="B163" t="n">
-        <v>0.001524503150457003</v>
+        <v>0.00148966419189161</v>
       </c>
       <c r="C163" t="n">
-        <v>0.09840439895135011</v>
+        <v>0.09882861096842786</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>81</v>
       </c>
       <c r="B164" t="n">
-        <v>0.001038800721807922</v>
+        <v>0.0005635880289436515</v>
       </c>
       <c r="C164" t="n">
-        <v>0.09745216171472211</v>
+        <v>0.09776420695351105</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>81.5</v>
       </c>
       <c r="B165" t="n">
-        <v>0.00129912944375089</v>
+        <v>0.000800030163743891</v>
       </c>
       <c r="C165" t="n">
-        <v>0.09840484623194555</v>
+        <v>0.09890193566840194</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>82</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0005281642934996208</v>
+        <v>0.0003091147335895316</v>
       </c>
       <c r="C166" t="n">
-        <v>0.09801866374201823</v>
+        <v>0.0989382883919518</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>82.5</v>
       </c>
       <c r="B167" t="n">
-        <v>0.001220170754098363</v>
+        <v>0.00182075575992128</v>
       </c>
       <c r="C167" t="n">
-        <v>0.09735904147075128</v>
+        <v>0.09889415696829279</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>83</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0005139894780084391</v>
+        <v>0.001824739667092608</v>
       </c>
       <c r="C168" t="n">
-        <v>0.09798564972119461</v>
+        <v>0.09933144595050999</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>83.5</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0010935295197695</v>
+        <v>0.001585842184586034</v>
       </c>
       <c r="C169" t="n">
-        <v>0.09868475125791568</v>
+        <v>0.09920623182232914</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>84</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0005467507746634735</v>
+        <v>0.001562976307950941</v>
       </c>
       <c r="C170" t="n">
-        <v>0.09857650967730208</v>
+        <v>0.09824412356407143</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>84.5</v>
       </c>
       <c r="B171" t="n">
-        <v>0.001001170144784467</v>
+        <v>0.001197749603611727</v>
       </c>
       <c r="C171" t="n">
-        <v>0.09804751215725399</v>
+        <v>0.0981089832750017</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>85</v>
       </c>
       <c r="B172" t="n">
-        <v>0.000222733306971972</v>
+        <v>0.001243575451199801</v>
       </c>
       <c r="C172" t="n">
-        <v>0.09896726483478185</v>
+        <v>0.09832958719325023</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>85.5</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0007744549097666263</v>
+        <v>0.001009735924252002</v>
       </c>
       <c r="C173" t="n">
-        <v>0.09873348329831454</v>
+        <v>0.09889913771007212</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>86</v>
       </c>
       <c r="B174" t="n">
-        <v>8.203984520889626e-05</v>
+        <v>0.0002071686393346795</v>
       </c>
       <c r="C174" t="n">
-        <v>0.09815505939731115</v>
+        <v>0.09816009758085434</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>86.5</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0007503758289573073</v>
+        <v>0.001161074065696836</v>
       </c>
       <c r="C175" t="n">
-        <v>0.09932455816648826</v>
+        <v>0.09937818510479732</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>87</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003216346884776029</v>
+        <v>0.001063655797847319</v>
       </c>
       <c r="C176" t="n">
-        <v>0.09798329490913985</v>
+        <v>0.09939166837195589</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>87.5</v>
       </c>
       <c r="B177" t="n">
-        <v>0.000962830845411125</v>
+        <v>0.0007363483647942368</v>
       </c>
       <c r="C177" t="n">
-        <v>0.09838448912180564</v>
+        <v>0.09937301971147598</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>88</v>
       </c>
       <c r="B178" t="n">
-        <v>0.001289521031534339</v>
+        <v>0.0005352041909932566</v>
       </c>
       <c r="C178" t="n">
-        <v>0.09949251048588073</v>
+        <v>0.09876347721803493</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>88.5</v>
       </c>
       <c r="B179" t="n">
-        <v>-5.552713480576495e-05</v>
+        <v>0.00030991061331056</v>
       </c>
       <c r="C179" t="n">
-        <v>0.09912905454415015</v>
+        <v>0.09848790126947829</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>89</v>
       </c>
       <c r="B180" t="n">
-        <v>0.00129747038699401</v>
+        <v>0.000208477383442924</v>
       </c>
       <c r="C180" t="n">
-        <v>0.09876397903535694</v>
+        <v>0.09956921006325288</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>89.5</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0008916231593160005</v>
+        <v>0.0009009060457042226</v>
       </c>
       <c r="C181" t="n">
-        <v>0.09871974345124444</v>
+        <v>0.09979394597560197</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>90</v>
       </c>
       <c r="B182" t="n">
-        <v>0.00131041273137189</v>
+        <v>0.0001165846687279573</v>
       </c>
       <c r="C182" t="n">
-        <v>0.09899984520180923</v>
+        <v>0.1000304501179168</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>90.5</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002530483430300728</v>
+        <v>0.001270729003969492</v>
       </c>
       <c r="C183" t="n">
-        <v>0.09834998418309111</v>
+        <v>0.09890806363180966</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>91</v>
       </c>
       <c r="B184" t="n">
-        <v>-8.288159084386248e-06</v>
+        <v>0.0005079833228609003</v>
       </c>
       <c r="C184" t="n">
-        <v>0.09946759529855181</v>
+        <v>0.09915511159345396</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>91.5</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001127102488936285</v>
+        <v>-5.085108993068955e-05</v>
       </c>
       <c r="C185" t="n">
-        <v>0.09862867329177985</v>
+        <v>0.09946080912768329</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>92</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0008913150974715226</v>
+        <v>0.00098596676063103</v>
       </c>
       <c r="C186" t="n">
-        <v>0.09850607690714776</v>
+        <v>0.09860192205942651</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>92.5</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0007864327085217182</v>
+        <v>-0.0003350382028155708</v>
       </c>
       <c r="C187" t="n">
-        <v>0.09968526943342883</v>
+        <v>0.1000514234952075</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>93</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0009982658818280706</v>
+        <v>-0.0003686198128288535</v>
       </c>
       <c r="C188" t="n">
-        <v>0.09938155920371057</v>
+        <v>0.09987438031580484</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>93.5</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0003583586496706453</v>
+        <v>0.001031940336596027</v>
       </c>
       <c r="C189" t="n">
-        <v>0.09957508367638601</v>
+        <v>0.09937364811206729</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>94</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0001117901434116367</v>
+        <v>0.0004775761779236418</v>
       </c>
       <c r="C190" t="n">
-        <v>0.09883702481546523</v>
+        <v>0.100261622566162</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>94.5</v>
       </c>
       <c r="B191" t="n">
-        <v>-4.69931132446804e-05</v>
+        <v>0.000507691322992811</v>
       </c>
       <c r="C191" t="n">
-        <v>0.09946075581086544</v>
+        <v>0.09952141907482878</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>95</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.0003443109237334294</v>
+        <v>0.001109416394190178</v>
       </c>
       <c r="C192" t="n">
-        <v>0.09930279830510029</v>
+        <v>0.09946277272687901</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>95.5</v>
       </c>
       <c r="B193" t="n">
-        <v>-3.958385238865721e-05</v>
+        <v>0.0009600089674679971</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1000511341508306</v>
+        <v>0.1001136958349203</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>96</v>
       </c>
       <c r="B194" t="n">
-        <v>3.500600892133152e-05</v>
+        <v>0.0003198569488579035</v>
       </c>
       <c r="C194" t="n">
-        <v>0.09946416879410369</v>
+        <v>0.09878729348567383</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>96.5</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0008748735837173656</v>
+        <v>0.0005522569604352533</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1001123762641147</v>
+        <v>0.09998594448609115</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>97</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0008061106202886332</v>
+        <v>0.0001653496176343062</v>
       </c>
       <c r="C196" t="n">
-        <v>0.09881691058053586</v>
+        <v>0.1002446770171332</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>97.5</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.0002263190616950657</v>
+        <v>0.0004475330394266704</v>
       </c>
       <c r="C197" t="n">
-        <v>0.09891681775377845</v>
+        <v>0.0996480098917317</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>98</v>
       </c>
       <c r="B198" t="n">
-        <v>0.000207846902471594</v>
+        <v>0.0007051867454628357</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1004173076973784</v>
+        <v>0.09926345258222614</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>98.5</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002206043722095674</v>
+        <v>0.000692739161959047</v>
       </c>
       <c r="C199" t="n">
-        <v>0.09983589806570208</v>
+        <v>0.100049069329071</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>99</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.000191605769443892</v>
+        <v>0.0007881910080360704</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1001870956849036</v>
+        <v>0.1000432848908323</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>99.5</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0009919362094609444</v>
+        <v>0.0006961148164223251</v>
       </c>
       <c r="C201" t="n">
-        <v>0.09897861005178646</v>
+        <v>0.09975791119281988</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>100</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002946898549706491</v>
+        <v>0.000381366671679716</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1004850516089092</v>
+        <v>0.09956840134867229</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>100.5</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005531330051099649</v>
+        <v>0.0005409714010988569</v>
       </c>
       <c r="C203" t="n">
-        <v>0.09893642251140169</v>
+        <v>0.09888826428471538</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>101</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0009840115505572297</v>
+        <v>-0.0005575135960110115</v>
       </c>
       <c r="C204" t="n">
-        <v>0.09919695462749027</v>
+        <v>0.09898029481421214</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>101.5</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0001313207581925259</v>
+        <v>-0.0004944164951451976</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0997864634278892</v>
+        <v>0.09905054268759177</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>102</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0007975199240139453</v>
+        <v>0.0002101233817178128</v>
       </c>
       <c r="C206" t="n">
-        <v>0.09960109682984249</v>
+        <v>0.09933471360531704</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>102.5</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.214638878579199e-05</v>
+        <v>-0.0005440349995878761</v>
       </c>
       <c r="C207" t="n">
-        <v>0.09886135772801834</v>
+        <v>0.09994242827625092</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>103</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.0004028799612771808</v>
+        <v>0.000527319586564423</v>
       </c>
       <c r="C208" t="n">
-        <v>0.09910399638368915</v>
+        <v>0.09927896212922192</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>103.5</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0008963517582919921</v>
+        <v>-0.0003113497234781808</v>
       </c>
       <c r="C209" t="n">
-        <v>0.09981723637080345</v>
+        <v>0.1004571571509805</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>104</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.0006839198062089523</v>
+        <v>0.0006448693438950222</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1000036527843439</v>
+        <v>0.1003789357492299</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>104.5</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0008732533922487264</v>
+        <v>0.0002630301940919098</v>
       </c>
       <c r="C211" t="n">
-        <v>0.09906573223966629</v>
+        <v>0.09909284141462767</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>105</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0001112125815216877</v>
+        <v>-0.0006794408653316356</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1004613950946681</v>
+        <v>0.09924533395999591</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>105.5</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003513957302108963</v>
+        <v>0.0005451757137220745</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1000871137001017</v>
+        <v>0.09959028553515258</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>106</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0007322384846593916</v>
+        <v>0.0003455838135309636</v>
       </c>
       <c r="C214" t="n">
-        <v>0.09995647968521906</v>
+        <v>0.1000108065440604</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>106.5</v>
       </c>
       <c r="B215" t="n">
-        <v>3.147176171700331e-05</v>
+        <v>0.0006794776590432493</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1006036006463107</v>
+        <v>0.09974631502728085</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>107</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.0007324951104871293</v>
+        <v>0.0005248881943915292</v>
       </c>
       <c r="C216" t="n">
-        <v>0.09900943415902164</v>
+        <v>0.1006220638067264</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>107.5</v>
       </c>
       <c r="B217" t="n">
-        <v>0.00044076428325701</v>
+        <v>0.0002627450085875971</v>
       </c>
       <c r="C217" t="n">
-        <v>0.09996062700023599</v>
+        <v>0.1005557306049425</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>108</v>
       </c>
       <c r="B218" t="n">
-        <v>1.358325278416408e-05</v>
+        <v>0.0004574349995546294</v>
       </c>
       <c r="C218" t="n">
-        <v>0.09915954538790164</v>
+        <v>0.09917440722750839</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>108.5</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0003232812442275174</v>
+        <v>0.0002261334092412863</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1002910885746316</v>
+        <v>0.1001715893183545</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>109</v>
       </c>
       <c r="B220" t="n">
-        <v>2.225652654200822e-05</v>
+        <v>-2.956268113077808e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>0.100383192874712</v>
+        <v>0.1002679091755166</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>109.5</v>
       </c>
       <c r="B221" t="n">
-        <v>1.318438387372251e-06</v>
+        <v>0.0007707742375932222</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1000187542721566</v>
+        <v>0.09909008836439111</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>110</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.0006429846064531644</v>
+        <v>0.0001006849386166074</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1005977649561494</v>
+        <v>0.09984149818210412</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>110.5</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.0004109380484071606</v>
+        <v>0.0005078046635302107</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1006634048876809</v>
+        <v>0.1002482026280011</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>111</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0006891458527927949</v>
+        <v>-0.0002077214674697228</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1007013462451532</v>
+        <v>0.09965065607579636</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>111.5</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0007798693957308877</v>
+        <v>-0.0005289285980774157</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1000290514545195</v>
+        <v>0.09985205053056986</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>112</v>
       </c>
       <c r="B226" t="n">
-        <v>0.000914973090115853</v>
+        <v>-9.183348384236891e-05</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1002835177732074</v>
+        <v>0.09981116965884983</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>112.5</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.0004707482163027551</v>
+        <v>0.0001473509706022345</v>
       </c>
       <c r="C227" t="n">
-        <v>0.09902977985053346</v>
+        <v>0.09977186432786188</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>113</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0002431156580670081</v>
+        <v>7.674390473044039e-05</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1007084471323919</v>
+        <v>0.1003614286298673</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>113.5</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0005423537571753006</v>
+        <v>0.0005061473901438226</v>
       </c>
       <c r="C229" t="n">
-        <v>0.09948450464849669</v>
+        <v>0.1004265733391077</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>114</v>
       </c>
       <c r="B230" t="n">
-        <v>0.0007386762617956481</v>
+        <v>-4.46855275994599e-05</v>
       </c>
       <c r="C230" t="n">
-        <v>0.09925414229806931</v>
+        <v>0.1002279633261057</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>114.5</v>
       </c>
       <c r="B231" t="n">
-        <v>0.0001214399641954624</v>
+        <v>0.0001734930164754238</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1000936757241122</v>
+        <v>0.09972613145289386</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>115</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.000365312308126377</v>
+        <v>0.0004232016694338726</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1001843827917756</v>
+        <v>0.1003241729096857</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>115.5</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.0006727206825662222</v>
+        <v>-0.000353289948870154</v>
       </c>
       <c r="C233" t="n">
-        <v>0.09941931031353644</v>
+        <v>0.1003320265677353</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>116</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0008564919388553523</v>
+        <v>9.605947553961075e-05</v>
       </c>
       <c r="C234" t="n">
-        <v>0.09932027358315063</v>
+        <v>0.09981481143271184</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>116.5</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0002873925433589739</v>
+        <v>0.0008622984327978601</v>
       </c>
       <c r="C235" t="n">
-        <v>0.09997090651207928</v>
+        <v>0.100434111421801</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>117</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.0008160725719172624</v>
+        <v>0.0006941783219078272</v>
       </c>
       <c r="C236" t="n">
-        <v>0.09917123641010524</v>
+        <v>0.1001743671426291</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>117.5</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.0002782860036737942</v>
+        <v>0.0005065546740282421</v>
       </c>
       <c r="C237" t="n">
-        <v>0.09926439118385384</v>
+        <v>0.1001548311800497</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>118</v>
       </c>
       <c r="B238" t="n">
-        <v>2.340342582095822e-05</v>
+        <v>-0.0001843593896338739</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1000611353087599</v>
+        <v>0.09987441634847777</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>118.5</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.0007172238344009543</v>
+        <v>-0.0006891585720108882</v>
       </c>
       <c r="C239" t="n">
-        <v>0.09938391818242549</v>
+        <v>0.1002887192938186</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>119</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.000653724929552589</v>
+        <v>-0.0002515878915484021</v>
       </c>
       <c r="C240" t="n">
-        <v>0.09953418188559422</v>
+        <v>0.0992447068612434</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>119.5</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0007798416333792093</v>
+        <v>-0.0001064093557870384</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1005900440779442</v>
+        <v>0.1006974999951358</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>120</v>
       </c>
       <c r="B242" t="n">
-        <v>-1.424285449685503e-05</v>
+        <v>3.346182593854253e-05</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1002449186862657</v>
+        <v>0.100713259512059</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>120.5</v>
       </c>
       <c r="B243" t="n">
-        <v>0.0003776084264501659</v>
+        <v>-0.0005886315324174215</v>
       </c>
       <c r="C243" t="n">
-        <v>0.099399979969053</v>
+        <v>0.09917619360401476</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>121</v>
       </c>
       <c r="B244" t="n">
-        <v>0.0007667634503000314</v>
+        <v>-0.0005861659266538885</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1002962803384743</v>
+        <v>0.1002891206338092</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>121.5</v>
       </c>
       <c r="B245" t="n">
-        <v>0.000184848280169027</v>
+        <v>0.0003257559352120346</v>
       </c>
       <c r="C245" t="n">
-        <v>0.09989770124670892</v>
+        <v>0.09999735275325307</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>122</v>
       </c>
       <c r="B246" t="n">
-        <v>0.0006702440123175276</v>
+        <v>-0.0006512298167553592</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1001176155625452</v>
+        <v>0.1008041926884094</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>122.5</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.0006137974351254847</v>
+        <v>0.0007629303799809367</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1003761532770692</v>
+        <v>0.0991072082474003</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>123</v>
       </c>
       <c r="B248" t="n">
-        <v>0.000217004181231902</v>
+        <v>0.0005353281394602598</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1001084711651478</v>
+        <v>0.09944990675199594</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>123.5</v>
       </c>
       <c r="B249" t="n">
-        <v>8.240388930646661e-05</v>
+        <v>-0.0004376515228279571</v>
       </c>
       <c r="C249" t="n">
-        <v>0.09982368542776597</v>
+        <v>0.09966119109148731</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>124</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.0007606914776958938</v>
+        <v>0.0001690077608450889</v>
       </c>
       <c r="C250" t="n">
-        <v>0.099465143239404</v>
+        <v>0.09921979957739004</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>124.5</v>
       </c>
       <c r="B251" t="n">
-        <v>0.0002079411247513198</v>
+        <v>0.0006969347236171552</v>
       </c>
       <c r="C251" t="n">
-        <v>0.09983547428547197</v>
+        <v>0.1006919173621562</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>125</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0001578946472804231</v>
+        <v>2.103508029010848e-05</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1000726790083713</v>
+        <v>0.0993236410289695</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>125.5</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0007852090107679007</v>
+        <v>0.0007067596600635242</v>
       </c>
       <c r="C253" t="n">
-        <v>0.09922284856326355</v>
+        <v>0.09912147442396137</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>126</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.0001188983197867435</v>
+        <v>0.0004913777915456476</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1006815557539079</v>
+        <v>0.1007122450493274</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>126.5</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.0001616348840306794</v>
+        <v>0.000674520707723935</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1002845358712832</v>
+        <v>0.09927065954287823</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>127</v>
       </c>
       <c r="B256" t="n">
-        <v>0.000287936522138686</v>
+        <v>-0.0005514234079993989</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1003615209956846</v>
+        <v>0.1007063073196681</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>127.5</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.0002251135033708284</v>
+        <v>-0.000431240669060837</v>
       </c>
       <c r="C257" t="n">
-        <v>0.09918460854617944</v>
+        <v>0.09940317925862603</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>128</v>
       </c>
       <c r="B258" t="n">
-        <v>0.0003838914631861541</v>
+        <v>-1.406104350962531e-05</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1007122082704521</v>
+        <v>0.1005959776545476</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>128.5</v>
       </c>
       <c r="B259" t="n">
-        <v>4.537359484793221e-05</v>
+        <v>-0.0005498638772696255</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1003961866351677</v>
+        <v>0.1000516207689995</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>129</v>
       </c>
       <c r="B260" t="n">
-        <v>0.0005681057313198968</v>
+        <v>-0.0006980432919026292</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1001520783696396</v>
+        <v>0.100727189963413</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>129.5</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.000270720867160535</v>
+        <v>-0.0004738255575611439</v>
       </c>
       <c r="C261" t="n">
-        <v>0.09938595618825896</v>
+        <v>0.1006780749141406</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>130</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.0001562149231827359</v>
+        <v>-0.0001977934433838383</v>
       </c>
       <c r="C262" t="n">
-        <v>0.09924810999856776</v>
+        <v>0.09999888761949222</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>130.5</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.000303778648098385</v>
+        <v>-0.0005937831483644687</v>
       </c>
       <c r="C263" t="n">
-        <v>0.100279519691857</v>
+        <v>0.100573926583229</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>131</v>
       </c>
       <c r="B264" t="n">
-        <v>0.0002818333943345377</v>
+        <v>0.0003092379137040834</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1007558143985782</v>
+        <v>0.09963054357907115</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>131.5</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.0003831781853854539</v>
+        <v>0.0001688377736825394</v>
       </c>
       <c r="C265" t="n">
-        <v>0.09943552613589351</v>
+        <v>0.09954215525611369</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>132</v>
       </c>
       <c r="B266" t="n">
-        <v>0.0001420709426459389</v>
+        <v>0.0003285145404621107</v>
       </c>
       <c r="C266" t="n">
-        <v>0.100638696166694</v>
+        <v>0.1008100451488087</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>132.5</v>
       </c>
       <c r="B267" t="n">
-        <v>0.0002905507784214917</v>
+        <v>0.0005049867098267125</v>
       </c>
       <c r="C267" t="n">
-        <v>0.100544491651079</v>
+        <v>0.1000802089857481</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>133</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.0006447933953104871</v>
+        <v>0.0001867082871095237</v>
       </c>
       <c r="C268" t="n">
-        <v>0.09990528775112346</v>
+        <v>0.09992549349398032</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>133.5</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.0008399130765315546</v>
+        <v>-0.0004553959899378563</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1002301307864172</v>
+        <v>0.09912782044333843</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>134</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.0006825436623619342</v>
+        <v>0.0001728547479245816</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1003715822263269</v>
+        <v>0.09916371517300199</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>134.5</v>
       </c>
       <c r="B271" t="n">
-        <v>2.55382710512254e-05</v>
+        <v>0.0001108173036108421</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1002011679212361</v>
+        <v>0.1005800965371176</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>135</v>
       </c>
       <c r="B272" t="n">
-        <v>0.000708109312744203</v>
+        <v>0.0004500833711532432</v>
       </c>
       <c r="C272" t="n">
-        <v>0.09920362496583648</v>
+        <v>0.1000451765092096</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>135.5</v>
       </c>
       <c r="B273" t="n">
-        <v>0.0007298048323170794</v>
+        <v>-0.0001060535339912125</v>
       </c>
       <c r="C273" t="n">
-        <v>0.09993679204227347</v>
+        <v>0.09932289670954642</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>136</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.0006999598803775322</v>
+        <v>-0.0004626731048535307</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1001247510691273</v>
+        <v>0.09976165288844478</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>136.5</v>
       </c>
       <c r="B275" t="n">
-        <v>0.0004316298493317033</v>
+        <v>0.0006838577953990835</v>
       </c>
       <c r="C275" t="n">
-        <v>0.099927044920628</v>
+        <v>0.09968983893288319</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>137</v>
       </c>
       <c r="B276" t="n">
-        <v>0.0002034033153034646</v>
+        <v>0.0001335720936957183</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1006536005207303</v>
+        <v>0.1008382674420286</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>137.5</v>
       </c>
       <c r="B277" t="n">
-        <v>5.614514531976355e-05</v>
+        <v>-0.0004020048804926002</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1005038656920921</v>
+        <v>0.09945193787792289</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>138</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.0004796711989163783</v>
+        <v>0.0007671887316090785</v>
       </c>
       <c r="C278" t="n">
-        <v>0.09939416823309009</v>
+        <v>0.09976812301435799</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>138.5</v>
       </c>
       <c r="B279" t="n">
-        <v>0.0006603715425698355</v>
+        <v>-0.0005797671411561872</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1003634733430376</v>
+        <v>0.09953187854731121</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>139</v>
       </c>
       <c r="B280" t="n">
-        <v>3.248773066051269e-05</v>
+        <v>-0.0008350423414059069</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1008471383660161</v>
+        <v>0.1006789367973992</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>139.5</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.0007041307184445553</v>
+        <v>-0.0008196738855605007</v>
       </c>
       <c r="C281" t="n">
-        <v>0.09976453955305829</v>
+        <v>0.09971239063909736</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>140</v>
       </c>
       <c r="B282" t="n">
-        <v>0.0005845959800698165</v>
+        <v>-0.0002631909615566911</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1005663070143731</v>
+        <v>0.1000826454852321</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>140.5</v>
       </c>
       <c r="B283" t="n">
-        <v>0.0008505525390210094</v>
+        <v>0.0008176912245682138</v>
       </c>
       <c r="C283" t="n">
-        <v>0.10066454581005</v>
+        <v>0.1002384392989905</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>141</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.0007769238006531442</v>
+        <v>-0.0007521574440230059</v>
       </c>
       <c r="C284" t="n">
-        <v>0.09936058099671928</v>
+        <v>0.100620433731456</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>141.5</v>
       </c>
       <c r="B285" t="n">
-        <v>0.0003017734196678771</v>
+        <v>-0.0007899344553228065</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1004247482611883</v>
+        <v>0.09987882090718943</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>142</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.0003647263249721312</v>
+        <v>-0.0005844066294597186</v>
       </c>
       <c r="C286" t="n">
-        <v>0.100851822011616</v>
+        <v>0.09934378796328638</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>142.5</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.0006632905162361508</v>
+        <v>-0.0003432629827594461</v>
       </c>
       <c r="C287" t="n">
-        <v>0.09928173941616418</v>
+        <v>0.1000245765106826</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>143</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.0003020371705661816</v>
+        <v>0.0001863393844177968</v>
       </c>
       <c r="C288" t="n">
-        <v>0.09956590459119914</v>
+        <v>0.1003636799434995</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>143.5</v>
       </c>
       <c r="B289" t="n">
-        <v>0.0005875501438235193</v>
+        <v>0.0002606960263336945</v>
       </c>
       <c r="C289" t="n">
-        <v>0.09968808723850317</v>
+        <v>0.09996743002299252</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>144</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.0006191616160430519</v>
+        <v>-0.0004446174605215668</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1000851830565799</v>
+        <v>0.1002016925726397</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>144.5</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.0001497214070744761</v>
+        <v>-6.447949196673441e-06</v>
       </c>
       <c r="C291" t="n">
-        <v>0.09999451925106226</v>
+        <v>0.09948510108938576</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>145</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.0006183710760092676</v>
+        <v>0.000368391568873494</v>
       </c>
       <c r="C292" t="n">
-        <v>0.09959085183852578</v>
+        <v>0.1003965730290066</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>145.5</v>
       </c>
       <c r="B293" t="n">
-        <v>0.0004153560994524654</v>
+        <v>0.0005474155413940966</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1001607241232927</v>
+        <v>0.1004550592186021</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>146</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.0001711604064309062</v>
+        <v>-0.0006707620108019417</v>
       </c>
       <c r="C294" t="n">
-        <v>0.09954400943740056</v>
+        <v>0.09971561130532976</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>146.5</v>
       </c>
       <c r="B295" t="n">
-        <v>0.0005676267785923742</v>
+        <v>-0.00086980191888946</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1002819171379007</v>
+        <v>0.09996654866080139</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>147</v>
       </c>
       <c r="B296" t="n">
-        <v>0.00079087335026034</v>
+        <v>1.477936014560699e-05</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1002539691537326</v>
+        <v>0.09970812401370474</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>147.5</v>
       </c>
       <c r="B297" t="n">
-        <v>0.0003608127809116922</v>
+        <v>-0.0004840999083135878</v>
       </c>
       <c r="C297" t="n">
-        <v>0.09965882306479298</v>
+        <v>0.09940530902251557</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>148</v>
       </c>
       <c r="B298" t="n">
-        <v>0.0007910819346751606</v>
+        <v>-0.0001540185513698719</v>
       </c>
       <c r="C298" t="n">
-        <v>0.100566858926812</v>
+        <v>0.1005370641339746</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>148.5</v>
       </c>
       <c r="B299" t="n">
-        <v>0.0001006938840319109</v>
+        <v>0.0008078765113584719</v>
       </c>
       <c r="C299" t="n">
-        <v>0.09934007520743209</v>
+        <v>0.09991424592561376</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>149</v>
       </c>
       <c r="B300" t="n">
-        <v>0.0003511970249082291</v>
+        <v>0.0003359191506155532</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1007779656509276</v>
+        <v>0.09961466862393539</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>149.5</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.0003335017738988251</v>
+        <v>-0.0006827067971030159</v>
       </c>
       <c r="C301" t="n">
-        <v>0.09952629996831081</v>
+        <v>0.1004019847045491</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>150</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.0002645034836256899</v>
+        <v>0.0007789435026239526</v>
       </c>
       <c r="C302" t="n">
-        <v>0.100215464822088</v>
+        <v>0.09913354742015128</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>150.5</v>
       </c>
       <c r="B303" t="n">
-        <v>0.0004168642061181391</v>
+        <v>0.0001827768965204088</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1001963002830186</v>
+        <v>0.09912930686878625</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>151</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.0001876752078347759</v>
+        <v>0.0002014395248762386</v>
       </c>
       <c r="C304" t="n">
-        <v>0.09953344799070349</v>
+        <v>0.100812325034981</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>151.5</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.0005981254658800782</v>
+        <v>-0.0008023708280138069</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1001159563351916</v>
+        <v>0.1004957895832776</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>152</v>
       </c>
       <c r="B306" t="n">
-        <v>0.0008519653010323804</v>
+        <v>0.0007414384964549778</v>
       </c>
       <c r="C306" t="n">
-        <v>0.09973818708428539</v>
+        <v>0.1007571902696853</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>152.5</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.0001273115508692507</v>
+        <v>-0.0007203554674224508</v>
       </c>
       <c r="C307" t="n">
-        <v>0.09984507134475887</v>
+        <v>0.1002289852487131</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>153</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.0002630920160062541</v>
+        <v>-2.887782739629126e-05</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1000693555602686</v>
+        <v>0.0999166313403209</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>153.5</v>
       </c>
       <c r="B309" t="n">
-        <v>0.000552254782869014</v>
+        <v>0.0006494828840689066</v>
       </c>
       <c r="C309" t="n">
-        <v>0.09919011859043808</v>
+        <v>0.1005518598884817</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>154</v>
       </c>
       <c r="B310" t="n">
-        <v>0.0007096644235356832</v>
+        <v>-0.0003407508903341044</v>
       </c>
       <c r="C310" t="n">
-        <v>0.0999489910639153</v>
+        <v>0.1008269171855838</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>154.5</v>
       </c>
       <c r="B311" t="n">
-        <v>-9.56456936444367e-05</v>
+        <v>0.0002268712175148277</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1002367050508458</v>
+        <v>0.1002475939236799</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>155</v>
       </c>
       <c r="B312" t="n">
-        <v>0.0004781808699511228</v>
+        <v>0.0006382063836526028</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1004657780130836</v>
+        <v>0.100677206504722</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>155.5</v>
       </c>
       <c r="B313" t="n">
-        <v>0.0007831660425925215</v>
+        <v>0.0003727973555229132</v>
       </c>
       <c r="C313" t="n">
-        <v>0.100555417170379</v>
+        <v>0.1003011771678578</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>156</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.0003396753151826692</v>
+        <v>-0.0005622975466684467</v>
       </c>
       <c r="C314" t="n">
-        <v>0.09955091108302352</v>
+        <v>0.0994883612234837</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>156.5</v>
       </c>
       <c r="B315" t="n">
-        <v>0.0002328442375497588</v>
+        <v>-0.0002575526714236421</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1005859538725954</v>
+        <v>0.1004437552049405</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>157</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.0003598421878542265</v>
+        <v>-0.0002227497108840162</v>
       </c>
       <c r="C316" t="n">
-        <v>0.100365222365984</v>
+        <v>0.0999875634442694</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>157.5</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.0006214400841833783</v>
+        <v>-0.0002123931865966035</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1001096974319837</v>
+        <v>0.09993373424782595</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>158</v>
       </c>
       <c r="B318" t="n">
-        <v>0.0006503554918798415</v>
+        <v>0.0006441421501664288</v>
       </c>
       <c r="C318" t="n">
-        <v>0.09975723415919084</v>
+        <v>0.09968846607046494</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>158.5</v>
       </c>
       <c r="B319" t="n">
-        <v>0.0008066514426474535</v>
+        <v>0.0004460426572156661</v>
       </c>
       <c r="C319" t="n">
-        <v>0.09980622307583928</v>
+        <v>0.0998974608813188</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>159</v>
       </c>
       <c r="B320" t="n">
-        <v>0.0002390198886449014</v>
+        <v>-0.0001786800701058168</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1007392876723019</v>
+        <v>0.09978741870038492</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>159.5</v>
       </c>
       <c r="B321" t="n">
-        <v>0.0007998797466608563</v>
+        <v>0.0005440105341340695</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1002125082685621</v>
+        <v>0.1004369131265675</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>160</v>
       </c>
       <c r="B322" t="n">
-        <v>0.0002129864587228793</v>
+        <v>0.0008619406292848516</v>
       </c>
       <c r="C322" t="n">
-        <v>0.09975574396699698</v>
+        <v>0.09970689722560576</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>160.5</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.0004227451400713059</v>
+        <v>0.0004365366059872277</v>
       </c>
       <c r="C323" t="n">
-        <v>0.09973943434183853</v>
+        <v>0.1000088503025746</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>161</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.0002448348010061078</v>
+        <v>-0.0003959960654184828</v>
       </c>
       <c r="C324" t="n">
-        <v>0.09971684527784598</v>
+        <v>0.09919496610917811</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>161.5</v>
       </c>
       <c r="B325" t="n">
-        <v>0.0001746241652965458</v>
+        <v>0.000339039153414661</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1003804897039672</v>
+        <v>0.09945827566687999</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>162</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.0004584773305352442</v>
+        <v>9.807751591029235e-05</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1002872571177546</v>
+        <v>0.09959376685807216</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>162.5</v>
       </c>
       <c r="B327" t="n">
-        <v>-6.613814942493439e-05</v>
+        <v>-0.0007310626419444267</v>
       </c>
       <c r="C327" t="n">
-        <v>0.100593718766952</v>
+        <v>0.1000607296046302</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>163</v>
       </c>
       <c r="B328" t="n">
-        <v>0.0004423090400684141</v>
+        <v>0.0001874430134359694</v>
       </c>
       <c r="C328" t="n">
-        <v>0.09956767147798704</v>
+        <v>0.1005793819912928</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>163.5</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.0006802905695963951</v>
+        <v>0.0001748004026315151</v>
       </c>
       <c r="C329" t="n">
-        <v>0.1004568651259825</v>
+        <v>0.1000141566165956</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>164</v>
       </c>
       <c r="B330" t="n">
-        <v>-3.035058883831927e-05</v>
+        <v>-0.0001047483107215994</v>
       </c>
       <c r="C330" t="n">
-        <v>0.09984309442371184</v>
+        <v>0.1003797826130493</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>164.5</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.0008295791901437899</v>
+        <v>0.0002424918078155263</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0997130898358</v>
+        <v>0.1000802310034246</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>165</v>
       </c>
       <c r="B332" t="n">
-        <v>0.0003717488887000526</v>
+        <v>6.804220442987148e-05</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1008205622653262</v>
+        <v>0.1007771631998996</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>165.5</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.0002056048197349609</v>
+        <v>0.0008189455283113639</v>
       </c>
       <c r="C333" t="n">
-        <v>0.09920878280224064</v>
+        <v>0.09922852336503619</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>166</v>
       </c>
       <c r="B334" t="n">
-        <v>0.0005105375782499654</v>
+        <v>-7.007720408661576e-05</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1001553494765553</v>
+        <v>0.09964110097013654</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>166.5</v>
       </c>
       <c r="B335" t="n">
-        <v>2.749848775106968e-06</v>
+        <v>0.0003950211503765831</v>
       </c>
       <c r="C335" t="n">
-        <v>0.09997265064069191</v>
+        <v>0.09991828152509422</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>167</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.0003806716459982294</v>
+        <v>0.0006634249179025778</v>
       </c>
       <c r="C336" t="n">
-        <v>0.09972378492588897</v>
+        <v>0.1007346014284305</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>167.5</v>
       </c>
       <c r="B337" t="n">
-        <v>0.0006767379809861104</v>
+        <v>0.0006413821568465802</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1000269014894838</v>
+        <v>0.1008288979912625</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>168</v>
       </c>
       <c r="B338" t="n">
-        <v>0.0007156770298816281</v>
+        <v>-0.0007611973017567019</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1003621156199506</v>
+        <v>0.09965745786802936</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>168.5</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.0001452858681858701</v>
+        <v>-0.0003960789731371861</v>
       </c>
       <c r="C339" t="n">
-        <v>0.09939139726820199</v>
+        <v>0.1006530531288301</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>169</v>
       </c>
       <c r="B340" t="n">
-        <v>0.000531883940746588</v>
+        <v>0.000503997572682781</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1003692685850623</v>
+        <v>0.09982585641889147</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>169.5</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.0005807940753014985</v>
+        <v>-0.0005361021215178608</v>
       </c>
       <c r="C341" t="n">
-        <v>0.09963391808331662</v>
+        <v>0.09937099160368378</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>170</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.0002854406180328554</v>
+        <v>-0.0008146847726665478</v>
       </c>
       <c r="C342" t="n">
-        <v>0.100637663018046</v>
+        <v>0.1004216281777684</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>170.5</v>
       </c>
       <c r="B343" t="n">
-        <v>0.0007456478414820406</v>
+        <v>-0.0006954797604486555</v>
       </c>
       <c r="C343" t="n">
-        <v>0.09985171594889829</v>
+        <v>0.1003356964764019</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>171</v>
       </c>
       <c r="B344" t="n">
-        <v>0.0003040233374947118</v>
+        <v>0.0006546089246219286</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1008033613465914</v>
+        <v>0.1005604057788181</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>171.5</v>
       </c>
       <c r="B345" t="n">
-        <v>0.0001747840457176828</v>
+        <v>-0.0006242835643629022</v>
       </c>
       <c r="C345" t="n">
-        <v>0.09930909189512929</v>
+        <v>0.1007046307413696</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>172</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.0006452986184902933</v>
+        <v>-0.0007572022468156575</v>
       </c>
       <c r="C346" t="n">
-        <v>0.09973328433027823</v>
+        <v>0.09919048269173503</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>172.5</v>
       </c>
       <c r="B347" t="n">
-        <v>0.0003473223741832024</v>
+        <v>0.0004197742007385715</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1007572009187823</v>
+        <v>0.1001643982241242</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>173</v>
       </c>
       <c r="B348" t="n">
-        <v>0.0007273328931834147</v>
+        <v>-0.0002728031271170446</v>
       </c>
       <c r="C348" t="n">
-        <v>0.0994423454437016</v>
+        <v>0.09991404940874576</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>173.5</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.0008027297529047133</v>
+        <v>0.0006573848214949217</v>
       </c>
       <c r="C349" t="n">
-        <v>0.1004498481050712</v>
+        <v>0.09989768554317756</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>174</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.0001745283382193144</v>
+        <v>5.133032595636774e-05</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1001604177153558</v>
+        <v>0.09942529171300195</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>174.5</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.0001820592713247851</v>
+        <v>3.71937747306263e-05</v>
       </c>
       <c r="C351" t="n">
-        <v>0.09954856416952945</v>
+        <v>0.1000169439636212</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>175</v>
       </c>
       <c r="B352" t="n">
-        <v>0.0004395564003934232</v>
+        <v>0.0004037774952170796</v>
       </c>
       <c r="C352" t="n">
-        <v>0.09984525392818774</v>
+        <v>0.09966771473016577</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>175.5</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.0006351264230071258</v>
+        <v>-0.0002210511315774014</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1005080624890886</v>
+        <v>0.1005690007583856</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>176</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.0008523269031977417</v>
+        <v>0.0005211518167207004</v>
       </c>
       <c r="C354" t="n">
-        <v>0.09973634261372186</v>
+        <v>0.1000724214923567</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>176.5</v>
       </c>
       <c r="B355" t="n">
-        <v>0.0003322652416270829</v>
+        <v>0.0008072241487828881</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1002262912018002</v>
+        <v>0.09957026797777252</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>177</v>
       </c>
       <c r="B356" t="n">
-        <v>0.000531864759056141</v>
+        <v>0.0005758638918676207</v>
       </c>
       <c r="C356" t="n">
-        <v>0.09952651520001508</v>
+        <v>0.1001278410677958</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>177.5</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.0007103863411979551</v>
+        <v>-0.0007086254030452688</v>
       </c>
       <c r="C357" t="n">
-        <v>0.09924961334771903</v>
+        <v>0.1008695722473552</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>178</v>
       </c>
       <c r="B358" t="n">
-        <v>0.0002019545295886016</v>
+        <v>-0.0008137593284709652</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1003339926184323</v>
+        <v>0.09993935195219278</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>178.5</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.000252730533658179</v>
+        <v>0.0006278215696160578</v>
       </c>
       <c r="C359" t="n">
-        <v>0.09976950357671141</v>
+        <v>0.09939928834606368</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>179</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.0005515002464565301</v>
+        <v>-0.0006535927697197279</v>
       </c>
       <c r="C360" t="n">
-        <v>0.09945746672940455</v>
+        <v>0.1003543536899308</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>179.5</v>
       </c>
       <c r="B361" t="n">
-        <v>0.0003958710257114601</v>
+        <v>3.144210490394055e-05</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1000173418617569</v>
+        <v>0.09934914951784213</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>180</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.0001043494934623185</v>
+        <v>0.0001334947487716673</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1001844061198445</v>
+        <v>0.1007061010132421</v>
       </c>
     </row>
   </sheetData>
